--- a/Experiments-java.xlsx
+++ b/Experiments-java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Practicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A35C28-C294-438F-80A3-1696742BB7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B63EA2-A2BF-4FB1-9291-D64ED73EC7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{91CEFA30-42C9-497A-86E0-3C971BA3561D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>S. no.</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>On progress</t>
+  </si>
+  <si>
+    <t>Write a program to find the sum of 3 numbers</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +445,12 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C1048576">
@@ -453,7 +464,7 @@
       <formula>NOT(ISERROR(SEARCH("On progress",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{E5A1BF59-A139-47DF-BF3D-AEA2431214B6}">
       <formula1>"Not completed, On progress,Completed,N/A"</formula1>
     </dataValidation>

--- a/Experiments-java.xlsx
+++ b/Experiments-java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Practicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B63EA2-A2BF-4FB1-9291-D64ED73EC7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD484753-4839-442F-B755-468A5A4FB947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{91CEFA30-42C9-497A-86E0-3C971BA3561D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>S. no.</t>
   </si>
@@ -41,15 +41,31 @@
   <si>
     <t>Write a program to find the sum of 3 numbers</t>
   </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Develop a Java application to generate Electricity bills.</t>
+  </si>
+  <si>
+    <t>Write a java program to find whether the given number is odd or even using a control statement.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,12 +91,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,14 +129,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -417,47 +450,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD9AEAE-A42D-4496-A676-4F35C9C78093}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="74" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="4">
+        <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A26" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Not completed">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Not completed">
       <formula>NOT(ISERROR(SEARCH("Not completed",C2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="On progress">
@@ -465,7 +699,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{E5A1BF59-A139-47DF-BF3D-AEA2431214B6}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{E5A1BF59-A139-47DF-BF3D-AEA2431214B6}">
       <formula1>"Not completed, On progress,Completed,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{3EEB0C06-16C1-4D8D-A37F-8F942312DE9D}">
